--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
   <si>
     <t>Task</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Shoot burst</t>
+  </si>
+  <si>
+    <t>Character Selection Screen</t>
+  </si>
+  <si>
+    <t>Player lives</t>
   </si>
 </sst>
 </file>
@@ -823,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,14 +1682,31 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidls4\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="91">
   <si>
     <t>Task</t>
   </si>
@@ -830,7 +830,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>90</v>
       </c>
@@ -1705,8 +1705,11 @@
       <c r="C65" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidls4\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t>Task</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Player lives</t>
+  </si>
+  <si>
+    <t>Ash bomb</t>
+  </si>
+  <si>
+    <t>7h</t>
   </si>
 </sst>
 </file>
@@ -829,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1716,18 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
   <si>
     <t>Task</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>7h</t>
+  </si>
+  <si>
+    <t>Ash powerups</t>
   </si>
 </sst>
 </file>
@@ -833,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,6 +1732,20 @@
         <v>92</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A32:D32"/>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanvil\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>Ash powerups</t>
+  </si>
+  <si>
+    <t>Gamepad controll</t>
+  </si>
+  <si>
+    <t>Gamepad bugs fixed</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -836,15 +845,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -1744,6 +1753,34 @@
       </c>
       <c r="D67" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanvil\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="99">
   <si>
     <t>Task</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>Audio bug</t>
+  </si>
+  <si>
+    <t>Gunbird 0.7</t>
   </si>
 </sst>
 </file>
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,8 +1789,31 @@
         <v>65</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A2:D2"/>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Gunbird 0.7</t>
+  </si>
+  <si>
+    <t>Continue mode</t>
   </si>
 </sst>
 </file>
@@ -516,6 +519,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,9 +529,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="D64" sqref="D64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,12 +883,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1014,12 +1017,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1064,12 +1067,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1142,12 +1145,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1270,12 +1273,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1684,12 +1687,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
@@ -1804,16 +1807,30 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A2:D2"/>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidls4\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
   <si>
     <t>Task</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Continue mode</t>
+  </si>
+  <si>
+    <t>UI Module</t>
+  </si>
+  <si>
+    <t>Valnus Implemented</t>
   </si>
 </sst>
 </file>
@@ -854,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D66"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,6 +1833,34 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidls4\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Valnus Implemented</t>
+  </si>
+  <si>
+    <t>Blocked characters on character selector</t>
   </si>
 </sst>
 </file>
@@ -860,9 +863,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -1862,6 +1865,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A72:D72"/>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
   <si>
     <t>Task</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Blocked characters on character selector</t>
+  </si>
+  <si>
+    <t>Fixed enemy shot</t>
   </si>
 </sst>
 </file>
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,6 +1880,20 @@
       </c>
       <c r="D75" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="105">
   <si>
     <t>Task</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Fixed enemy shot</t>
+  </si>
+  <si>
+    <t>Added Enemies Sprites</t>
   </si>
 </sst>
 </file>
@@ -866,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,6 +1897,20 @@
       </c>
       <c r="D76" s="8" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
   <si>
     <t>Task</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Added Enemies Sprites</t>
+  </si>
+  <si>
+    <t>Finally 100% fixed enemy shoot</t>
   </si>
 </sst>
 </file>
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,6 +1914,20 @@
       </c>
       <c r="D77" s="8" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>Finally 100% fixed enemy shoot</t>
+  </si>
+  <si>
+    <t>Enemy VerticalBomb (first wave)</t>
+  </si>
+  <si>
+    <t>Enemy SurfingTowers (first wave)</t>
+  </si>
+  <si>
+    <t>Enemy SurfingTowers (second wave)</t>
   </si>
 </sst>
 </file>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,6 +1937,48 @@
       </c>
       <c r="D78" s="8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="111">
   <si>
     <t>Task</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Enemy SurfingTowers (second wave)</t>
+  </si>
+  <si>
+    <t>Enemy Big Tower</t>
+  </si>
+  <si>
+    <t>Enemy Blue Robot</t>
   </si>
 </sst>
 </file>
@@ -881,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,6 +1985,34 @@
       </c>
       <c r="D81" s="8" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
   <si>
     <t>Task</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Enemy Blue Robot</t>
+  </si>
+  <si>
+    <t>Added all remaining enemies</t>
+  </si>
+  <si>
+    <t>Added All particles</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,6 +2019,34 @@
       </c>
       <c r="D83" s="8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Added All particles</t>
+  </si>
+  <si>
+    <t>Added Ship Boss</t>
+  </si>
+  <si>
+    <t>Added Bird Boss</t>
   </si>
 </sst>
 </file>
@@ -893,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,6 +2053,34 @@
       </c>
       <c r="D85" s="8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Added Bird Boss</t>
+  </si>
+  <si>
+    <t>Debug and Polish</t>
+  </si>
+  <si>
+    <t>60h</t>
   </si>
 </sst>
 </file>
@@ -899,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,6 +2087,20 @@
       </c>
       <c r="D87" s="8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="128">
   <si>
     <t>Task</t>
   </si>
@@ -375,6 +375,39 @@
   </si>
   <si>
     <t>60h</t>
+  </si>
+  <si>
+    <t>Adding enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan Valiente </t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Place enemies on level</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+  </si>
+  <si>
+    <t>Enemies animations work</t>
+  </si>
+  <si>
+    <t>QA and Polish</t>
+  </si>
+  <si>
+    <t>Make Builds</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
 </sst>
 </file>
@@ -905,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,6 +2134,104 @@
       </c>
       <c r="D88" s="8" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -375,39 +375,6 @@
   </si>
   <si>
     <t>60h</t>
-  </si>
-  <si>
-    <t>Adding enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joan Valiente </t>
-  </si>
-  <si>
-    <t>20h</t>
-  </si>
-  <si>
-    <t>Place enemies on level</t>
-  </si>
-  <si>
-    <t>30h</t>
-  </si>
-  <si>
-    <t>Fullscreen</t>
-  </si>
-  <si>
-    <t>Enemies animations work</t>
-  </si>
-  <si>
-    <t>QA and Polish</t>
-  </si>
-  <si>
-    <t>Make Builds</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>12h</t>
   </si>
 </sst>
 </file>
@@ -938,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,104 +2101,6 @@
       </c>
       <c r="D88" s="8" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>124</v>
-      </c>
-      <c r="B93" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
-        <v>40</v>
-      </c>
-      <c r="D94" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="128">
   <si>
     <t>Task</t>
   </si>
@@ -375,6 +375,39 @@
   </si>
   <si>
     <t>60h</t>
+  </si>
+  <si>
+    <t>Enemies look to the player</t>
+  </si>
+  <si>
+    <t>Enemy red machine</t>
+  </si>
+  <si>
+    <t>Enemy ship turret</t>
+  </si>
+  <si>
+    <t>Enemy big middle ship turret</t>
+  </si>
+  <si>
+    <t>Power-Up path</t>
+  </si>
+  <si>
+    <t>Enemy despawn fix</t>
+  </si>
+  <si>
+    <t>Gunbird 0.8</t>
+  </si>
+  <si>
+    <t>Sound Effects</t>
+  </si>
+  <si>
+    <t>Enemies drops</t>
+  </si>
+  <si>
+    <t>Gunbird 0.9</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -569,7 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,6 +621,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,12 +969,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1068,12 +1103,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1118,12 +1153,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1196,12 +1231,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1260,12 +1295,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1324,12 +1359,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1738,373 +1773,531 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="B66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="B71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="B73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D119" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="8" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D125" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="D128" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="8" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="B130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D130" s="5" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A116:D116"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A62:D62"/>

--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="137">
   <si>
     <t>Task</t>
   </si>
@@ -408,13 +408,40 @@
   </si>
   <si>
     <t>Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Enemies </t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>Place Enemies on Level</t>
+  </si>
+  <si>
+    <t>Work on enemies animations</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Fullscreen</t>
+  </si>
+  <si>
+    <t>QA and Polish</t>
+  </si>
+  <si>
+    <t>Debug and Testing</t>
+  </si>
+  <si>
+    <t>Builds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +449,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +490,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -589,11 +636,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,6 +677,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,12 +689,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -940,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,12 +1362,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1773,12 +1840,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -1907,12 +1974,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2054,13 +2121,55 @@
         <v>83</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2119,194 +2228,251 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>133</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>41</v>
+      <c r="A122" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
+      <c r="A123" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>39</v>
+      <c r="A124" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="5" t="s">
+      <c r="B133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="5" t="s">
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="5" t="s">
+      <c r="B136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D136" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="B137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D137" s="5" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WatermelonSquadTaskList.xlsx
+++ b/WatermelonSquadTaskList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joanv\Documents\GitHub\Watermelon-Squad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Watermelon-Squad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="147">
   <si>
     <t>Task</t>
   </si>
@@ -374,9 +374,6 @@
     <t>Debug and Polish</t>
   </si>
   <si>
-    <t>60h</t>
-  </si>
-  <si>
     <t>Enemies look to the player</t>
   </si>
   <si>
@@ -435,6 +432,39 @@
   </si>
   <si>
     <t>Builds</t>
+  </si>
+  <si>
+    <t>Real time</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>94h50min</t>
+  </si>
+  <si>
+    <t>83h30min</t>
+  </si>
+  <si>
+    <t>115h 30 min</t>
+  </si>
+  <si>
+    <t>137h30min</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>140h30min</t>
+  </si>
+  <si>
+    <t>150h30min</t>
   </si>
 </sst>
 </file>
@@ -459,7 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -471,12 +501,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -493,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -654,44 +684,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,12 +1065,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1170,12 +1199,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1220,12 +1249,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1298,12 +1327,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1362,12 +1391,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1426,12 +1455,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1840,12 +1869,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -1956,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,12 +2003,12 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2039,7 +2068,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>13</v>
@@ -2053,7 +2082,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>13</v>
@@ -2067,7 +2096,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>13</v>
@@ -2081,7 +2110,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>13</v>
@@ -2095,7 +2124,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>13</v>
@@ -2163,314 +2192,367 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="B88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>133</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
+      <c r="A112" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>116</v>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
